--- a/docs/tr_intihar_cinsiyet_kadin.xlsx
+++ b/docs/tr_intihar_cinsiyet_kadin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Documents/GitHub/muy665-bahar2024-takim-code_or_die-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6658EB97-A268-45B5-AC0B-F94C77C2A8EA}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBC5F06-C6A5-4D58-8A2B-98C063E3ECBE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yil_kadın" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>yil</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>güneydogu anadolu</t>
+  </si>
+  <si>
+    <t>bati anadolu</t>
+  </si>
+  <si>
+    <t>ortadogu anadolu</t>
   </si>
 </sst>
 </file>
@@ -399,17 +405,17 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -436,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -454,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
